--- a/src/test/resources/excel/read_horizontal.xlsx
+++ b/src/test/resources/excel/read_horizontal.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\github\asta4e\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
@@ -89,6 +94,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD1"/>
+  <dimension ref="A1:XFD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:16384">
       <c r="A1" t="str">
@@ -428,7 +441,7 @@
         <v>A1</v>
       </c>
       <c r="B1" t="str">
-        <f t="shared" ref="B1:BM1" ca="1" si="0" xml:space="preserve"> SUBSTITUTE(CELL("address",B1),"$","")</f>
+        <f t="shared" ref="B1:BM5" ca="1" si="0" xml:space="preserve"> SUBSTITUTE(CELL("address",B1),"$","")</f>
         <v>B1</v>
       </c>
       <c r="C1" t="str">
@@ -65958,12 +65971,36 @@
       <c r="XFD1" t="str">
         <f t="shared" ca="1" si="255"/>
         <v>XFD1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16384">
+      <c r="Z2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Z2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16384">
+      <c r="Z3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Z3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16384">
+      <c r="Z4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Z4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="Z5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Z5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
